--- a/document/均压测试仪_AC信号分析.xlsx
+++ b/document/均压测试仪_AC信号分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="原数据" sheetId="1" r:id="rId1"/>
